--- a/HW1 - Jill.xlsx
+++ b/HW1 - Jill.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D96D4F8-E54F-434C-9025-4765E45E197B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EFD9DE-8928-854C-A05F-40BF2B0571AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="460" windowWidth="24660" windowHeight="14460" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="480" windowWidth="24660" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Two Product Model" sheetId="1" r:id="rId1"/>
@@ -15,17 +15,19 @@
     <sheet name="Cutting Stock" sheetId="6" r:id="rId5"/>
     <sheet name="Transportation Problem" sheetId="7" r:id="rId6"/>
     <sheet name="Assignment Problem" sheetId="10" r:id="rId7"/>
-    <sheet name="Berlin Airlift" sheetId="12" r:id="rId8"/>
-    <sheet name="Berlin Airlift - 2" sheetId="13" r:id="rId9"/>
-    <sheet name="Distributor Problem" sheetId="11" r:id="rId10"/>
+    <sheet name="Assignment Problem - 2" sheetId="15" r:id="rId8"/>
+    <sheet name="Berlin Airlift" sheetId="12" r:id="rId9"/>
+    <sheet name="Berlin Airlift - 2" sheetId="13" r:id="rId10"/>
+    <sheet name="Distributor Problem" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="6" hidden="1">'Assignment Problem'!$D$19:$M$28</definedName>
-    <definedName name="solver_adj" localSheetId="7" hidden="1">'Berlin Airlift'!$B$5:$B$6</definedName>
-    <definedName name="solver_adj" localSheetId="8" hidden="1">'Berlin Airlift - 2'!$B$5:$B$6</definedName>
+    <definedName name="solver_adj" localSheetId="7" hidden="1">'Assignment Problem - 2'!$D$19:$M$28</definedName>
+    <definedName name="solver_adj" localSheetId="8" hidden="1">'Berlin Airlift'!$B$5:$B$6</definedName>
+    <definedName name="solver_adj" localSheetId="9" hidden="1">'Berlin Airlift - 2'!$B$5:$B$6</definedName>
     <definedName name="solver_adj" localSheetId="4" hidden="1">'Cutting Stock'!$G$10:$G$15</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">Diet!$H$4:$H$9</definedName>
-    <definedName name="solver_adj" localSheetId="9" hidden="1">'Distributor Problem'!$H$5:$H$19</definedName>
+    <definedName name="solver_adj" localSheetId="10" hidden="1">'Distributor Problem'!$H$5:$H$19</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">'Gas Blending Student'!$E$15:$H$18</definedName>
     <definedName name="solver_adj" localSheetId="3" hidden="1">'Nurse Scheduling'!$D$12:$D$17</definedName>
     <definedName name="solver_adj" localSheetId="5" hidden="1">'Transportation Problem'!$D$16:$G$17</definedName>
@@ -33,9 +35,10 @@
     <definedName name="solver_cvg" localSheetId="6" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="7" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="8" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="9" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="9" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="10" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
@@ -43,9 +46,10 @@
     <definedName name="solver_drv" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
@@ -53,14 +57,16 @@
     <definedName name="solver_eng" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="9" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="10" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
@@ -68,166 +74,191 @@
     <definedName name="solver_est" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="6" hidden="1">100</definedName>
-    <definedName name="solver_itr" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="7" hidden="1">100</definedName>
     <definedName name="solver_itr" localSheetId="8" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="9" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="4" hidden="1">100</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">100</definedName>
-    <definedName name="solver_itr" localSheetId="9" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="10" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_itr" localSheetId="5" hidden="1">100</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_lhs1" localSheetId="6" hidden="1">'Assignment Problem'!$D$29</definedName>
-    <definedName name="solver_lhs1" localSheetId="7" hidden="1">'Berlin Airlift'!$B$7</definedName>
-    <definedName name="solver_lhs1" localSheetId="8" hidden="1">'Berlin Airlift - 2'!$B$7</definedName>
+    <definedName name="solver_lhs1" localSheetId="7" hidden="1">'Assignment Problem - 2'!$D$29</definedName>
+    <definedName name="solver_lhs1" localSheetId="8" hidden="1">'Berlin Airlift'!$B$7</definedName>
+    <definedName name="solver_lhs1" localSheetId="9" hidden="1">'Berlin Airlift - 2'!$B$7</definedName>
     <definedName name="solver_lhs1" localSheetId="4" hidden="1">'Cutting Stock'!$H$16</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">Diet!$D$10</definedName>
-    <definedName name="solver_lhs1" localSheetId="9" hidden="1">'Distributor Problem'!$E$10</definedName>
+    <definedName name="solver_lhs1" localSheetId="10" hidden="1">'Distributor Problem'!$E$10</definedName>
     <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Gas Blending Student'!$E$21</definedName>
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">'Nurse Scheduling'!$D$10</definedName>
     <definedName name="solver_lhs1" localSheetId="5" hidden="1">'Transportation Problem'!$D$18</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Two Product Model'!$D$10</definedName>
     <definedName name="solver_lhs10" localSheetId="6" hidden="1">'Assignment Problem'!$M$29</definedName>
-    <definedName name="solver_lhs10" localSheetId="9" hidden="1">'Distributor Problem'!$E$19</definedName>
+    <definedName name="solver_lhs10" localSheetId="7" hidden="1">'Assignment Problem - 2'!$M$29</definedName>
+    <definedName name="solver_lhs10" localSheetId="10" hidden="1">'Distributor Problem'!$E$19</definedName>
     <definedName name="solver_lhs10" localSheetId="2" hidden="1">'Gas Blending Student'!$I$15</definedName>
     <definedName name="solver_lhs11" localSheetId="6" hidden="1">'Assignment Problem'!$N$19</definedName>
-    <definedName name="solver_lhs11" localSheetId="9" hidden="1">'Distributor Problem'!$E$5</definedName>
+    <definedName name="solver_lhs11" localSheetId="7" hidden="1">'Assignment Problem - 2'!$N$19</definedName>
+    <definedName name="solver_lhs11" localSheetId="10" hidden="1">'Distributor Problem'!$E$5</definedName>
     <definedName name="solver_lhs11" localSheetId="2" hidden="1">'Gas Blending Student'!$I$16</definedName>
     <definedName name="solver_lhs12" localSheetId="6" hidden="1">'Assignment Problem'!$N$20</definedName>
-    <definedName name="solver_lhs12" localSheetId="9" hidden="1">'Distributor Problem'!$E$6</definedName>
+    <definedName name="solver_lhs12" localSheetId="7" hidden="1">'Assignment Problem - 2'!$N$20</definedName>
+    <definedName name="solver_lhs12" localSheetId="10" hidden="1">'Distributor Problem'!$E$6</definedName>
     <definedName name="solver_lhs12" localSheetId="2" hidden="1">'Gas Blending Student'!$I$17</definedName>
     <definedName name="solver_lhs13" localSheetId="6" hidden="1">'Assignment Problem'!$N$21</definedName>
-    <definedName name="solver_lhs13" localSheetId="9" hidden="1">'Distributor Problem'!$E$7</definedName>
+    <definedName name="solver_lhs13" localSheetId="7" hidden="1">'Assignment Problem - 2'!$N$21</definedName>
+    <definedName name="solver_lhs13" localSheetId="10" hidden="1">'Distributor Problem'!$E$7</definedName>
     <definedName name="solver_lhs13" localSheetId="2" hidden="1">'Gas Blending Student'!$I$18</definedName>
     <definedName name="solver_lhs14" localSheetId="6" hidden="1">'Assignment Problem'!$N$22</definedName>
-    <definedName name="solver_lhs14" localSheetId="9" hidden="1">'Distributor Problem'!$E$8</definedName>
+    <definedName name="solver_lhs14" localSheetId="7" hidden="1">'Assignment Problem - 2'!$N$22</definedName>
+    <definedName name="solver_lhs14" localSheetId="10" hidden="1">'Distributor Problem'!$E$8</definedName>
     <definedName name="solver_lhs14" localSheetId="2" hidden="1">'Gas Blending Student'!$I$17</definedName>
     <definedName name="solver_lhs15" localSheetId="6" hidden="1">'Assignment Problem'!$N$23</definedName>
-    <definedName name="solver_lhs15" localSheetId="9" hidden="1">'Distributor Problem'!$E$9</definedName>
+    <definedName name="solver_lhs15" localSheetId="7" hidden="1">'Assignment Problem - 2'!$N$23</definedName>
+    <definedName name="solver_lhs15" localSheetId="10" hidden="1">'Distributor Problem'!$E$9</definedName>
     <definedName name="solver_lhs15" localSheetId="2" hidden="1">'Gas Blending Student'!$I$17</definedName>
     <definedName name="solver_lhs16" localSheetId="6" hidden="1">'Assignment Problem'!$N$24</definedName>
-    <definedName name="solver_lhs16" localSheetId="9" hidden="1">'Distributor Problem'!$H$10</definedName>
+    <definedName name="solver_lhs16" localSheetId="7" hidden="1">'Assignment Problem - 2'!$N$24</definedName>
+    <definedName name="solver_lhs16" localSheetId="10" hidden="1">'Distributor Problem'!$H$10</definedName>
     <definedName name="solver_lhs16" localSheetId="2" hidden="1">'Gas Blending Student'!$I$18</definedName>
     <definedName name="solver_lhs17" localSheetId="6" hidden="1">'Assignment Problem'!$N$25</definedName>
-    <definedName name="solver_lhs17" localSheetId="9" hidden="1">'Distributor Problem'!$H$11</definedName>
+    <definedName name="solver_lhs17" localSheetId="7" hidden="1">'Assignment Problem - 2'!$N$25</definedName>
+    <definedName name="solver_lhs17" localSheetId="10" hidden="1">'Distributor Problem'!$H$11</definedName>
     <definedName name="solver_lhs17" localSheetId="2" hidden="1">'Gas Blending Student'!$I$18</definedName>
     <definedName name="solver_lhs18" localSheetId="6" hidden="1">'Assignment Problem'!$N$26</definedName>
-    <definedName name="solver_lhs18" localSheetId="9" hidden="1">'Distributor Problem'!$H$12</definedName>
+    <definedName name="solver_lhs18" localSheetId="7" hidden="1">'Assignment Problem - 2'!$N$26</definedName>
+    <definedName name="solver_lhs18" localSheetId="10" hidden="1">'Distributor Problem'!$H$12</definedName>
     <definedName name="solver_lhs19" localSheetId="6" hidden="1">'Assignment Problem'!$N$27</definedName>
-    <definedName name="solver_lhs19" localSheetId="9" hidden="1">'Distributor Problem'!$H$13</definedName>
+    <definedName name="solver_lhs19" localSheetId="7" hidden="1">'Assignment Problem - 2'!$N$27</definedName>
+    <definedName name="solver_lhs19" localSheetId="10" hidden="1">'Distributor Problem'!$H$13</definedName>
     <definedName name="solver_lhs2" localSheetId="6" hidden="1">'Assignment Problem'!$E$29</definedName>
-    <definedName name="solver_lhs2" localSheetId="7" hidden="1">'Berlin Airlift'!$C$7</definedName>
-    <definedName name="solver_lhs2" localSheetId="8" hidden="1">'Berlin Airlift - 2'!$C$7</definedName>
+    <definedName name="solver_lhs2" localSheetId="7" hidden="1">'Assignment Problem - 2'!$E$29</definedName>
+    <definedName name="solver_lhs2" localSheetId="8" hidden="1">'Berlin Airlift'!$C$7</definedName>
+    <definedName name="solver_lhs2" localSheetId="9" hidden="1">'Berlin Airlift - 2'!$C$7</definedName>
     <definedName name="solver_lhs2" localSheetId="4" hidden="1">'Cutting Stock'!$I$16</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">Diet!$E$10</definedName>
-    <definedName name="solver_lhs2" localSheetId="9" hidden="1">'Distributor Problem'!$E$11</definedName>
+    <definedName name="solver_lhs2" localSheetId="10" hidden="1">'Distributor Problem'!$E$11</definedName>
     <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Gas Blending Student'!$E$21</definedName>
     <definedName name="solver_lhs2" localSheetId="3" hidden="1">'Nurse Scheduling'!$D$5</definedName>
     <definedName name="solver_lhs2" localSheetId="5" hidden="1">'Transportation Problem'!$E$18</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Two Product Model'!$D$11</definedName>
     <definedName name="solver_lhs20" localSheetId="6" hidden="1">'Assignment Problem'!$N$28</definedName>
-    <definedName name="solver_lhs20" localSheetId="9" hidden="1">'Distributor Problem'!$H$14</definedName>
-    <definedName name="solver_lhs21" localSheetId="9" hidden="1">'Distributor Problem'!$H$15</definedName>
-    <definedName name="solver_lhs22" localSheetId="9" hidden="1">'Distributor Problem'!$H$16</definedName>
-    <definedName name="solver_lhs23" localSheetId="9" hidden="1">'Distributor Problem'!$H$17</definedName>
-    <definedName name="solver_lhs24" localSheetId="9" hidden="1">'Distributor Problem'!$H$18</definedName>
-    <definedName name="solver_lhs25" localSheetId="9" hidden="1">'Distributor Problem'!$H$19</definedName>
-    <definedName name="solver_lhs26" localSheetId="9" hidden="1">'Distributor Problem'!$H$5</definedName>
-    <definedName name="solver_lhs27" localSheetId="9" hidden="1">'Distributor Problem'!$H$6</definedName>
-    <definedName name="solver_lhs28" localSheetId="9" hidden="1">'Distributor Problem'!$H$7</definedName>
-    <definedName name="solver_lhs29" localSheetId="9" hidden="1">'Distributor Problem'!$H$8</definedName>
+    <definedName name="solver_lhs20" localSheetId="7" hidden="1">'Assignment Problem - 2'!$N$28</definedName>
+    <definedName name="solver_lhs20" localSheetId="10" hidden="1">'Distributor Problem'!$H$14</definedName>
+    <definedName name="solver_lhs21" localSheetId="10" hidden="1">'Distributor Problem'!$H$15</definedName>
+    <definedName name="solver_lhs22" localSheetId="10" hidden="1">'Distributor Problem'!$H$16</definedName>
+    <definedName name="solver_lhs23" localSheetId="10" hidden="1">'Distributor Problem'!$H$17</definedName>
+    <definedName name="solver_lhs24" localSheetId="10" hidden="1">'Distributor Problem'!$H$18</definedName>
+    <definedName name="solver_lhs25" localSheetId="10" hidden="1">'Distributor Problem'!$H$19</definedName>
+    <definedName name="solver_lhs26" localSheetId="10" hidden="1">'Distributor Problem'!$H$5</definedName>
+    <definedName name="solver_lhs27" localSheetId="10" hidden="1">'Distributor Problem'!$H$6</definedName>
+    <definedName name="solver_lhs28" localSheetId="10" hidden="1">'Distributor Problem'!$H$7</definedName>
+    <definedName name="solver_lhs29" localSheetId="10" hidden="1">'Distributor Problem'!$H$8</definedName>
     <definedName name="solver_lhs3" localSheetId="6" hidden="1">'Assignment Problem'!$F$29</definedName>
-    <definedName name="solver_lhs3" localSheetId="7" hidden="1">'Berlin Airlift'!$D$7</definedName>
-    <definedName name="solver_lhs3" localSheetId="8" hidden="1">'Berlin Airlift - 2'!$D$7</definedName>
+    <definedName name="solver_lhs3" localSheetId="7" hidden="1">'Assignment Problem - 2'!$F$29</definedName>
+    <definedName name="solver_lhs3" localSheetId="8" hidden="1">'Berlin Airlift'!$D$7</definedName>
+    <definedName name="solver_lhs3" localSheetId="9" hidden="1">'Berlin Airlift - 2'!$D$7</definedName>
     <definedName name="solver_lhs3" localSheetId="4" hidden="1">'Cutting Stock'!$J$16</definedName>
     <definedName name="solver_lhs3" localSheetId="1" hidden="1">Diet!$F$10</definedName>
-    <definedName name="solver_lhs3" localSheetId="9" hidden="1">'Distributor Problem'!$E$12</definedName>
+    <definedName name="solver_lhs3" localSheetId="10" hidden="1">'Distributor Problem'!$E$12</definedName>
     <definedName name="solver_lhs3" localSheetId="2" hidden="1">'Gas Blending Student'!$E$25</definedName>
     <definedName name="solver_lhs3" localSheetId="3" hidden="1">'Nurse Scheduling'!$D$6</definedName>
     <definedName name="solver_lhs3" localSheetId="5" hidden="1">'Transportation Problem'!$F$18</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Two Product Model'!$D$2</definedName>
-    <definedName name="solver_lhs30" localSheetId="9" hidden="1">'Distributor Problem'!$H$9</definedName>
-    <definedName name="solver_lhs31" localSheetId="9" hidden="1">'Distributor Problem'!$I$20</definedName>
-    <definedName name="solver_lhs32" localSheetId="9" hidden="1">'Distributor Problem'!$J$20</definedName>
+    <definedName name="solver_lhs30" localSheetId="10" hidden="1">'Distributor Problem'!$H$9</definedName>
+    <definedName name="solver_lhs31" localSheetId="10" hidden="1">'Distributor Problem'!$I$20</definedName>
+    <definedName name="solver_lhs32" localSheetId="10" hidden="1">'Distributor Problem'!$J$20</definedName>
     <definedName name="solver_lhs4" localSheetId="6" hidden="1">'Assignment Problem'!$G$29</definedName>
-    <definedName name="solver_lhs4" localSheetId="7" hidden="1">'Berlin Airlift'!$C$7</definedName>
-    <definedName name="solver_lhs4" localSheetId="8" hidden="1">'Berlin Airlift - 2'!$C$7</definedName>
+    <definedName name="solver_lhs4" localSheetId="7" hidden="1">'Assignment Problem - 2'!$G$29</definedName>
+    <definedName name="solver_lhs4" localSheetId="8" hidden="1">'Berlin Airlift'!$C$7</definedName>
+    <definedName name="solver_lhs4" localSheetId="9" hidden="1">'Berlin Airlift - 2'!$C$7</definedName>
     <definedName name="solver_lhs4" localSheetId="1" hidden="1">Diet!$G$10</definedName>
-    <definedName name="solver_lhs4" localSheetId="9" hidden="1">'Distributor Problem'!$E$13</definedName>
+    <definedName name="solver_lhs4" localSheetId="10" hidden="1">'Distributor Problem'!$E$13</definedName>
     <definedName name="solver_lhs4" localSheetId="2" hidden="1">'Gas Blending Student'!$F$21</definedName>
     <definedName name="solver_lhs4" localSheetId="3" hidden="1">'Nurse Scheduling'!$D$7</definedName>
     <definedName name="solver_lhs4" localSheetId="5" hidden="1">'Transportation Problem'!$G$18</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">'Two Product Model'!$D$2</definedName>
     <definedName name="solver_lhs5" localSheetId="6" hidden="1">'Assignment Problem'!$H$29</definedName>
-    <definedName name="solver_lhs5" localSheetId="7" hidden="1">'Berlin Airlift'!$D$7</definedName>
-    <definedName name="solver_lhs5" localSheetId="8" hidden="1">'Berlin Airlift - 2'!$D$7</definedName>
-    <definedName name="solver_lhs5" localSheetId="9" hidden="1">'Distributor Problem'!$E$14</definedName>
+    <definedName name="solver_lhs5" localSheetId="7" hidden="1">'Assignment Problem - 2'!$H$29</definedName>
+    <definedName name="solver_lhs5" localSheetId="8" hidden="1">'Berlin Airlift'!$D$7</definedName>
+    <definedName name="solver_lhs5" localSheetId="9" hidden="1">'Berlin Airlift - 2'!$D$7</definedName>
+    <definedName name="solver_lhs5" localSheetId="10" hidden="1">'Distributor Problem'!$E$14</definedName>
     <definedName name="solver_lhs5" localSheetId="2" hidden="1">'Gas Blending Student'!$F$21</definedName>
     <definedName name="solver_lhs5" localSheetId="3" hidden="1">'Nurse Scheduling'!$D$8</definedName>
     <definedName name="solver_lhs5" localSheetId="5" hidden="1">'Transportation Problem'!$H$16</definedName>
     <definedName name="solver_lhs5" localSheetId="0" hidden="1">'Two Product Model'!$D$9</definedName>
     <definedName name="solver_lhs6" localSheetId="6" hidden="1">'Assignment Problem'!$I$29</definedName>
-    <definedName name="solver_lhs6" localSheetId="9" hidden="1">'Distributor Problem'!$E$15</definedName>
+    <definedName name="solver_lhs6" localSheetId="7" hidden="1">'Assignment Problem - 2'!$I$29</definedName>
+    <definedName name="solver_lhs6" localSheetId="10" hidden="1">'Distributor Problem'!$E$15</definedName>
     <definedName name="solver_lhs6" localSheetId="2" hidden="1">'Gas Blending Student'!$F$25</definedName>
     <definedName name="solver_lhs6" localSheetId="3" hidden="1">'Nurse Scheduling'!$D$9</definedName>
     <definedName name="solver_lhs6" localSheetId="5" hidden="1">'Transportation Problem'!$H$17</definedName>
     <definedName name="solver_lhs6" localSheetId="0" hidden="1">'Two Product Model'!$E$2</definedName>
     <definedName name="solver_lhs7" localSheetId="6" hidden="1">'Assignment Problem'!$J$29</definedName>
-    <definedName name="solver_lhs7" localSheetId="9" hidden="1">'Distributor Problem'!$E$16</definedName>
+    <definedName name="solver_lhs7" localSheetId="7" hidden="1">'Assignment Problem - 2'!$J$29</definedName>
+    <definedName name="solver_lhs7" localSheetId="10" hidden="1">'Distributor Problem'!$E$16</definedName>
     <definedName name="solver_lhs7" localSheetId="2" hidden="1">'Gas Blending Student'!$G$21</definedName>
     <definedName name="solver_lhs7" localSheetId="0" hidden="1">'Two Product Model'!$E$2</definedName>
     <definedName name="solver_lhs8" localSheetId="6" hidden="1">'Assignment Problem'!$K$29</definedName>
-    <definedName name="solver_lhs8" localSheetId="9" hidden="1">'Distributor Problem'!$E$17</definedName>
+    <definedName name="solver_lhs8" localSheetId="7" hidden="1">'Assignment Problem - 2'!$K$29</definedName>
+    <definedName name="solver_lhs8" localSheetId="10" hidden="1">'Distributor Problem'!$E$17</definedName>
     <definedName name="solver_lhs8" localSheetId="2" hidden="1">'Gas Blending Student'!$G$21</definedName>
     <definedName name="solver_lhs9" localSheetId="6" hidden="1">'Assignment Problem'!$L$29</definedName>
-    <definedName name="solver_lhs9" localSheetId="9" hidden="1">'Distributor Problem'!$E$18</definedName>
+    <definedName name="solver_lhs9" localSheetId="7" hidden="1">'Assignment Problem - 2'!$L$29</definedName>
+    <definedName name="solver_lhs9" localSheetId="10" hidden="1">'Distributor Problem'!$E$18</definedName>
     <definedName name="solver_lhs9" localSheetId="2" hidden="1">'Gas Blending Student'!$G$25</definedName>
     <definedName name="solver_lin" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_lin" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_mip" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="8" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="9" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="7" hidden="1">30</definedName>
+    <definedName name="solver_mip" localSheetId="10" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="8" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="9" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="7" hidden="1">0.075</definedName>
+    <definedName name="solver_mni" localSheetId="10" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="8" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="9" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_mrt" localSheetId="10" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="10" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="8" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="9" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="10" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="6" hidden="1">20</definedName>
-    <definedName name="solver_num" localSheetId="7" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="7" hidden="1">20</definedName>
     <definedName name="solver_num" localSheetId="8" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="9" hidden="1">3</definedName>
     <definedName name="solver_num" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">4</definedName>
-    <definedName name="solver_num" localSheetId="9" hidden="1">32</definedName>
+    <definedName name="solver_num" localSheetId="10" hidden="1">32</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">13</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">6</definedName>
     <definedName name="solver_num" localSheetId="5" hidden="1">6</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">7</definedName>
     <definedName name="solver_nwt" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
@@ -235,11 +266,12 @@
     <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="6" hidden="1">'Assignment Problem'!$E$43</definedName>
-    <definedName name="solver_opt" localSheetId="7" hidden="1">'Berlin Airlift'!$B$10</definedName>
-    <definedName name="solver_opt" localSheetId="8" hidden="1">'Berlin Airlift - 2'!$B$10</definedName>
+    <definedName name="solver_opt" localSheetId="7" hidden="1">'Assignment Problem - 2'!$E$43</definedName>
+    <definedName name="solver_opt" localSheetId="8" hidden="1">'Berlin Airlift'!$B$10</definedName>
+    <definedName name="solver_opt" localSheetId="9" hidden="1">'Berlin Airlift - 2'!$B$10</definedName>
     <definedName name="solver_opt" localSheetId="4" hidden="1">'Cutting Stock'!$G$16</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">Diet!$I$10</definedName>
-    <definedName name="solver_opt" localSheetId="9" hidden="1">'Distributor Problem'!$K$20</definedName>
+    <definedName name="solver_opt" localSheetId="10" hidden="1">'Distributor Problem'!$K$20</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">'Gas Blending Student'!$L$22</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">'Nurse Scheduling'!$D$18</definedName>
     <definedName name="solver_opt" localSheetId="5" hidden="1">'Transportation Problem'!$D$23</definedName>
@@ -247,238 +279,280 @@
     <definedName name="solver_pre" localSheetId="6" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="7" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="8" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="9" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
-    <definedName name="solver_pre" localSheetId="9" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="10" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="9" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel1" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel10" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_rel10" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_rel10" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rel10" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rel10" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_rel10" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel11" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_rel11" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_rel11" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rel11" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rel11" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_rel11" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel12" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_rel12" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_rel12" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rel12" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rel12" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_rel12" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel13" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_rel13" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_rel13" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rel13" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rel13" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_rel13" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel14" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_rel14" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_rel14" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rel14" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rel14" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_rel14" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel15" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_rel15" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_rel15" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rel15" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rel15" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_rel15" localSheetId="2" hidden="1">3</definedName>
-    <definedName name="solver_rel16" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_rel16" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_rel16" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rel16" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rel16" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_rel16" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel17" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_rel17" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_rel17" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rel17" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rel17" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_rel17" localSheetId="2" hidden="1">3</definedName>
-    <definedName name="solver_rel18" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_rel18" localSheetId="9" hidden="1">1</definedName>
-    <definedName name="solver_rel19" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_rel19" localSheetId="9" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rel18" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rel18" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rel18" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_rel19" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rel19" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rel19" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel20" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_rel20" localSheetId="9" hidden="1">1</definedName>
-    <definedName name="solver_rel21" localSheetId="9" hidden="1">1</definedName>
-    <definedName name="solver_rel22" localSheetId="9" hidden="1">1</definedName>
-    <definedName name="solver_rel23" localSheetId="9" hidden="1">1</definedName>
-    <definedName name="solver_rel24" localSheetId="9" hidden="1">1</definedName>
-    <definedName name="solver_rel25" localSheetId="9" hidden="1">1</definedName>
-    <definedName name="solver_rel26" localSheetId="9" hidden="1">1</definedName>
-    <definedName name="solver_rel27" localSheetId="9" hidden="1">1</definedName>
-    <definedName name="solver_rel28" localSheetId="9" hidden="1">1</definedName>
-    <definedName name="solver_rel29" localSheetId="9" hidden="1">1</definedName>
-    <definedName name="solver_rel3" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_rel3" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rel20" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rel20" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rel20" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_rel21" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_rel22" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_rel23" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_rel24" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_rel25" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_rel26" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_rel27" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_rel28" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_rel29" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel3" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel30" localSheetId="9" hidden="1">1</definedName>
-    <definedName name="solver_rel31" localSheetId="9" hidden="1">1</definedName>
-    <definedName name="solver_rel32" localSheetId="9" hidden="1">1</definedName>
-    <definedName name="solver_rel4" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_rel4" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rel30" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_rel31" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_rel32" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rel4" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_rel4" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel4" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel5" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_rel5" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rel5" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rel5" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_rel5" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_rel5" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel5" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel6" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_rel6" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_rel6" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rel6" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rel6" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_rel6" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel6" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel6" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rel6" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel7" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_rel7" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_rel7" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rel7" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rel7" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_rel7" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel7" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel8" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_rel8" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_rel8" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rel8" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rel8" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_rel8" localSheetId="2" hidden="1">3</definedName>
-    <definedName name="solver_rel9" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_rel9" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_rel9" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rel9" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rel9" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_rel9" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="7" hidden="1">'Berlin Airlift'!$B$8</definedName>
-    <definedName name="solver_rhs1" localSheetId="8" hidden="1">'Berlin Airlift - 2'!$B$8</definedName>
+    <definedName name="solver_rhs1" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="8" hidden="1">'Berlin Airlift'!$B$8</definedName>
+    <definedName name="solver_rhs1" localSheetId="9" hidden="1">'Berlin Airlift - 2'!$B$8</definedName>
     <definedName name="solver_rhs1" localSheetId="4" hidden="1">'Cutting Stock'!$D$5</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="9" hidden="1">'Distributor Problem'!$H$10</definedName>
+    <definedName name="solver_rhs1" localSheetId="10" hidden="1">'Distributor Problem'!$H$10</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">'Gas Blending Student'!$E$20</definedName>
     <definedName name="solver_rhs1" localSheetId="3" hidden="1">'Nurse Scheduling'!$E$10</definedName>
     <definedName name="solver_rhs1" localSheetId="5" hidden="1">'Transportation Problem'!$D$8</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">'Two Product Model'!$E$10</definedName>
     <definedName name="solver_rhs10" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_rhs10" localSheetId="9" hidden="1">'Distributor Problem'!$H$19</definedName>
+    <definedName name="solver_rhs10" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rhs10" localSheetId="10" hidden="1">'Distributor Problem'!$H$19</definedName>
     <definedName name="solver_rhs10" localSheetId="2" hidden="1">'Gas Blending Student'!$F$7</definedName>
     <definedName name="solver_rhs11" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_rhs11" localSheetId="9" hidden="1">'Distributor Problem'!$H$5</definedName>
+    <definedName name="solver_rhs11" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rhs11" localSheetId="10" hidden="1">'Distributor Problem'!$H$5</definedName>
     <definedName name="solver_rhs11" localSheetId="2" hidden="1">'Gas Blending Student'!$F$8</definedName>
     <definedName name="solver_rhs12" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_rhs12" localSheetId="9" hidden="1">'Distributor Problem'!$H$6</definedName>
+    <definedName name="solver_rhs12" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rhs12" localSheetId="10" hidden="1">'Distributor Problem'!$H$6</definedName>
     <definedName name="solver_rhs12" localSheetId="2" hidden="1">'Gas Blending Student'!$F$9</definedName>
     <definedName name="solver_rhs13" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_rhs13" localSheetId="9" hidden="1">'Distributor Problem'!$H$7</definedName>
+    <definedName name="solver_rhs13" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rhs13" localSheetId="10" hidden="1">'Distributor Problem'!$H$7</definedName>
     <definedName name="solver_rhs13" localSheetId="2" hidden="1">'Gas Blending Student'!$F$10</definedName>
     <definedName name="solver_rhs14" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_rhs14" localSheetId="9" hidden="1">'Distributor Problem'!$H$8</definedName>
+    <definedName name="solver_rhs14" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rhs14" localSheetId="10" hidden="1">'Distributor Problem'!$H$8</definedName>
     <definedName name="solver_rhs14" localSheetId="2" hidden="1">'Gas Blending Student'!$F$9</definedName>
     <definedName name="solver_rhs15" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_rhs15" localSheetId="9" hidden="1">'Distributor Problem'!$H$9</definedName>
+    <definedName name="solver_rhs15" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rhs15" localSheetId="10" hidden="1">'Distributor Problem'!$H$9</definedName>
     <definedName name="solver_rhs15" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs16" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_rhs16" localSheetId="9" hidden="1">'Distributor Problem'!$F$10</definedName>
+    <definedName name="solver_rhs16" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rhs16" localSheetId="10" hidden="1">'Distributor Problem'!$F$10</definedName>
     <definedName name="solver_rhs16" localSheetId="2" hidden="1">'Gas Blending Student'!$F$10</definedName>
     <definedName name="solver_rhs17" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_rhs17" localSheetId="9" hidden="1">'Distributor Problem'!$F$11</definedName>
+    <definedName name="solver_rhs17" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rhs17" localSheetId="10" hidden="1">'Distributor Problem'!$F$11</definedName>
     <definedName name="solver_rhs17" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs18" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_rhs18" localSheetId="9" hidden="1">'Distributor Problem'!$F$12</definedName>
+    <definedName name="solver_rhs18" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rhs18" localSheetId="10" hidden="1">'Distributor Problem'!$F$12</definedName>
     <definedName name="solver_rhs19" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_rhs19" localSheetId="9" hidden="1">'Distributor Problem'!$F$13</definedName>
+    <definedName name="solver_rhs19" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rhs19" localSheetId="10" hidden="1">'Distributor Problem'!$F$13</definedName>
     <definedName name="solver_rhs2" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_rhs2" localSheetId="7" hidden="1">'Berlin Airlift'!$C$8</definedName>
-    <definedName name="solver_rhs2" localSheetId="8" hidden="1">'Berlin Airlift - 2'!$C$8</definedName>
+    <definedName name="solver_rhs2" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rhs2" localSheetId="8" hidden="1">'Berlin Airlift'!$C$8</definedName>
+    <definedName name="solver_rhs2" localSheetId="9" hidden="1">'Berlin Airlift - 2'!$C$8</definedName>
     <definedName name="solver_rhs2" localSheetId="4" hidden="1">'Cutting Stock'!$D$6</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rhs2" localSheetId="9" hidden="1">'Distributor Problem'!$H$11</definedName>
+    <definedName name="solver_rhs2" localSheetId="10" hidden="1">'Distributor Problem'!$H$11</definedName>
     <definedName name="solver_rhs2" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="3" hidden="1">'Nurse Scheduling'!$E$5</definedName>
     <definedName name="solver_rhs2" localSheetId="5" hidden="1">'Transportation Problem'!$E$8</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">'Two Product Model'!$E$11</definedName>
     <definedName name="solver_rhs20" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_rhs20" localSheetId="9" hidden="1">'Distributor Problem'!$F$14</definedName>
-    <definedName name="solver_rhs21" localSheetId="9" hidden="1">'Distributor Problem'!$F$15</definedName>
-    <definedName name="solver_rhs22" localSheetId="9" hidden="1">'Distributor Problem'!$F$16</definedName>
-    <definedName name="solver_rhs23" localSheetId="9" hidden="1">'Distributor Problem'!$F$17</definedName>
-    <definedName name="solver_rhs24" localSheetId="9" hidden="1">'Distributor Problem'!$F$18</definedName>
-    <definedName name="solver_rhs25" localSheetId="9" hidden="1">'Distributor Problem'!$F$19</definedName>
-    <definedName name="solver_rhs26" localSheetId="9" hidden="1">'Distributor Problem'!$F$5</definedName>
-    <definedName name="solver_rhs27" localSheetId="9" hidden="1">'Distributor Problem'!$F$6</definedName>
-    <definedName name="solver_rhs28" localSheetId="9" hidden="1">'Distributor Problem'!$F$7</definedName>
-    <definedName name="solver_rhs29" localSheetId="9" hidden="1">'Distributor Problem'!$F$8</definedName>
+    <definedName name="solver_rhs20" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rhs20" localSheetId="10" hidden="1">'Distributor Problem'!$F$14</definedName>
+    <definedName name="solver_rhs21" localSheetId="10" hidden="1">'Distributor Problem'!$F$15</definedName>
+    <definedName name="solver_rhs22" localSheetId="10" hidden="1">'Distributor Problem'!$F$16</definedName>
+    <definedName name="solver_rhs23" localSheetId="10" hidden="1">'Distributor Problem'!$F$17</definedName>
+    <definedName name="solver_rhs24" localSheetId="10" hidden="1">'Distributor Problem'!$F$18</definedName>
+    <definedName name="solver_rhs25" localSheetId="10" hidden="1">'Distributor Problem'!$F$19</definedName>
+    <definedName name="solver_rhs26" localSheetId="10" hidden="1">'Distributor Problem'!$F$5</definedName>
+    <definedName name="solver_rhs27" localSheetId="10" hidden="1">'Distributor Problem'!$F$6</definedName>
+    <definedName name="solver_rhs28" localSheetId="10" hidden="1">'Distributor Problem'!$F$7</definedName>
+    <definedName name="solver_rhs29" localSheetId="10" hidden="1">'Distributor Problem'!$F$8</definedName>
     <definedName name="solver_rhs3" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_rhs3" localSheetId="7" hidden="1">'Berlin Airlift'!$D$8</definedName>
-    <definedName name="solver_rhs3" localSheetId="8" hidden="1">'Berlin Airlift - 2'!$D$8</definedName>
+    <definedName name="solver_rhs3" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rhs3" localSheetId="8" hidden="1">'Berlin Airlift'!$D$8</definedName>
+    <definedName name="solver_rhs3" localSheetId="9" hidden="1">'Berlin Airlift - 2'!$D$8</definedName>
     <definedName name="solver_rhs3" localSheetId="4" hidden="1">'Cutting Stock'!$D$7</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rhs3" localSheetId="9" hidden="1">'Distributor Problem'!$H$12</definedName>
+    <definedName name="solver_rhs3" localSheetId="10" hidden="1">'Distributor Problem'!$H$12</definedName>
     <definedName name="solver_rhs3" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs3" localSheetId="3" hidden="1">'Nurse Scheduling'!$E$6</definedName>
     <definedName name="solver_rhs3" localSheetId="5" hidden="1">'Transportation Problem'!$F$8</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">'Two Product Model'!$D$4</definedName>
-    <definedName name="solver_rhs30" localSheetId="9" hidden="1">'Distributor Problem'!$F$9</definedName>
-    <definedName name="solver_rhs31" localSheetId="9" hidden="1">'Distributor Problem'!$I$21</definedName>
-    <definedName name="solver_rhs32" localSheetId="9" hidden="1">'Distributor Problem'!$J$21</definedName>
+    <definedName name="solver_rhs30" localSheetId="10" hidden="1">'Distributor Problem'!$F$9</definedName>
+    <definedName name="solver_rhs31" localSheetId="10" hidden="1">'Distributor Problem'!$I$21</definedName>
+    <definedName name="solver_rhs32" localSheetId="10" hidden="1">'Distributor Problem'!$J$21</definedName>
     <definedName name="solver_rhs4" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_rhs4" localSheetId="7" hidden="1">'Berlin Airlift'!$C$8</definedName>
-    <definedName name="solver_rhs4" localSheetId="8" hidden="1">'Berlin Airlift - 2'!$C$8</definedName>
+    <definedName name="solver_rhs4" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rhs4" localSheetId="8" hidden="1">'Berlin Airlift'!$C$8</definedName>
+    <definedName name="solver_rhs4" localSheetId="9" hidden="1">'Berlin Airlift - 2'!$C$8</definedName>
     <definedName name="solver_rhs4" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rhs4" localSheetId="9" hidden="1">'Distributor Problem'!$H$13</definedName>
+    <definedName name="solver_rhs4" localSheetId="10" hidden="1">'Distributor Problem'!$H$13</definedName>
     <definedName name="solver_rhs4" localSheetId="2" hidden="1">'Gas Blending Student'!$F$20</definedName>
     <definedName name="solver_rhs4" localSheetId="3" hidden="1">'Nurse Scheduling'!$E$7</definedName>
     <definedName name="solver_rhs4" localSheetId="5" hidden="1">'Transportation Problem'!$G$8</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">'Two Product Model'!$D$3</definedName>
     <definedName name="solver_rhs5" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_rhs5" localSheetId="7" hidden="1">'Berlin Airlift'!$D$8</definedName>
-    <definedName name="solver_rhs5" localSheetId="8" hidden="1">'Berlin Airlift - 2'!$D$8</definedName>
-    <definedName name="solver_rhs5" localSheetId="9" hidden="1">'Distributor Problem'!$H$14</definedName>
+    <definedName name="solver_rhs5" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rhs5" localSheetId="8" hidden="1">'Berlin Airlift'!$D$8</definedName>
+    <definedName name="solver_rhs5" localSheetId="9" hidden="1">'Berlin Airlift - 2'!$D$8</definedName>
+    <definedName name="solver_rhs5" localSheetId="10" hidden="1">'Distributor Problem'!$H$14</definedName>
     <definedName name="solver_rhs5" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs5" localSheetId="3" hidden="1">'Nurse Scheduling'!$E$8</definedName>
     <definedName name="solver_rhs5" localSheetId="5" hidden="1">'Transportation Problem'!$D$4</definedName>
     <definedName name="solver_rhs5" localSheetId="0" hidden="1">'Two Product Model'!$E$9</definedName>
     <definedName name="solver_rhs6" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_rhs6" localSheetId="9" hidden="1">'Distributor Problem'!$H$15</definedName>
+    <definedName name="solver_rhs6" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rhs6" localSheetId="10" hidden="1">'Distributor Problem'!$H$15</definedName>
     <definedName name="solver_rhs6" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs6" localSheetId="3" hidden="1">'Nurse Scheduling'!$E$9</definedName>
     <definedName name="solver_rhs6" localSheetId="5" hidden="1">'Transportation Problem'!$D$5</definedName>
     <definedName name="solver_rhs6" localSheetId="0" hidden="1">'Two Product Model'!$E$4</definedName>
     <definedName name="solver_rhs7" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_rhs7" localSheetId="9" hidden="1">'Distributor Problem'!$H$16</definedName>
+    <definedName name="solver_rhs7" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rhs7" localSheetId="10" hidden="1">'Distributor Problem'!$H$16</definedName>
     <definedName name="solver_rhs7" localSheetId="2" hidden="1">'Gas Blending Student'!$G$20</definedName>
     <definedName name="solver_rhs7" localSheetId="0" hidden="1">'Two Product Model'!$E$3</definedName>
     <definedName name="solver_rhs8" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_rhs8" localSheetId="9" hidden="1">'Distributor Problem'!$H$17</definedName>
+    <definedName name="solver_rhs8" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rhs8" localSheetId="10" hidden="1">'Distributor Problem'!$H$17</definedName>
     <definedName name="solver_rhs8" localSheetId="2" hidden="1">'Gas Blending Student'!$G$19</definedName>
     <definedName name="solver_rhs9" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_rhs9" localSheetId="9" hidden="1">'Distributor Problem'!$H$18</definedName>
+    <definedName name="solver_rhs9" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rhs9" localSheetId="10" hidden="1">'Distributor Problem'!$H$18</definedName>
     <definedName name="solver_rhs9" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_rlx" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="8" hidden="1">1</definedName>
-    <definedName name="solver_rlx" localSheetId="9" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="7" hidden="1">0</definedName>
+    <definedName name="solver_rlx" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_rlx" localSheetId="10" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="8" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="10" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="9" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_scl" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="5" hidden="1">2</definedName>
@@ -486,42 +560,46 @@
     <definedName name="solver_sho" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="9" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="10" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="7" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="8" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="9" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="10" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="6" hidden="1">9999999999</definedName>
-    <definedName name="solver_tim" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="7" hidden="1">9999999999</definedName>
     <definedName name="solver_tim" localSheetId="8" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="9" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="4" hidden="1">9999999999</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">9999999999</definedName>
-    <definedName name="solver_tim" localSheetId="9" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="10" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">9999999999</definedName>
     <definedName name="solver_tim" localSheetId="3" hidden="1">9999999999</definedName>
     <definedName name="solver_tim" localSheetId="5" hidden="1">9999999999</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">9999999999</definedName>
     <definedName name="solver_tol" localSheetId="6" hidden="1">0.05</definedName>
-    <definedName name="solver_tol" localSheetId="7" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="7" hidden="1">0.05</definedName>
     <definedName name="solver_tol" localSheetId="8" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="9" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="4" hidden="1">0.05</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.05</definedName>
-    <definedName name="solver_tol" localSheetId="9" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="10" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.05</definedName>
     <definedName name="solver_tol" localSheetId="3" hidden="1">0.05</definedName>
     <definedName name="solver_tol" localSheetId="5" hidden="1">0.05</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.05</definedName>
     <definedName name="solver_typ" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_typ" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="5" hidden="1">2</definedName>
@@ -529,9 +607,10 @@
     <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="7" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="8" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="9" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="10" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
@@ -539,9 +618,10 @@
     <definedName name="solver_ver" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="9" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_ver" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="10" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="5" hidden="1">2</definedName>
@@ -560,7 +640,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="139">
   <si>
     <t>Product A</t>
   </si>
@@ -1947,8 +2027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2195,6 +2275,121 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C643BD6-A792-444A-BA0E-267918547EE5}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView zoomScale="166" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="92">
+        <v>4.5238095238095255</v>
+      </c>
+      <c r="C5" s="73">
+        <f>2*B5</f>
+        <v>9.047619047619051</v>
+      </c>
+      <c r="D5">
+        <f>21*9000</f>
+        <v>189000</v>
+      </c>
+      <c r="E5">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="92">
+        <v>39.476190476190474</v>
+      </c>
+      <c r="C6">
+        <f>B6</f>
+        <v>39.476190476190474</v>
+      </c>
+      <c r="D6">
+        <f>21*5000</f>
+        <v>105000</v>
+      </c>
+      <c r="E6">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="73">
+        <f>SUM(B5:B6)</f>
+        <v>44</v>
+      </c>
+      <c r="C7">
+        <f>SUM(C5:C6)</f>
+        <v>48.523809523809526</v>
+      </c>
+      <c r="D7">
+        <f>B5*D5+B6*D6</f>
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>44</v>
+      </c>
+      <c r="C8">
+        <v>64</v>
+      </c>
+      <c r="D8">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="102">
+        <f>B5*E5*21+B6*E6*21</f>
+        <v>19430000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A4:K21"/>
   <sheetViews>
@@ -2912,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="10">
-        <f>C4*H4</f>
+        <f t="shared" ref="I4:I9" si="0">C4*H4</f>
         <v>0</v>
       </c>
     </row>
@@ -2939,7 +3134,7 @@
         <v>2.4999999999999982</v>
       </c>
       <c r="I5" s="10">
-        <f t="shared" ref="I5:I9" si="0">C5*H5</f>
+        <f t="shared" si="0"/>
         <v>6.8749999999999947</v>
       </c>
     </row>
@@ -3057,15 +3252,15 @@
         <v>2.5333333333333332</v>
       </c>
       <c r="E10" s="9">
-        <f t="shared" ref="E10:G10" si="1">E4*$H$4+E5*$H$5+E6*$H$6+E7*$H$7+E8*$H$8+E9*$H$9</f>
+        <f>E4*$H$4+E5*$H$5+E6*$H$6+E7*$H$7+E8*$H$8+E9*$H$9</f>
         <v>1.0000000000000002</v>
       </c>
       <c r="F10" s="9">
-        <f t="shared" si="1"/>
+        <f>F4*$H$4+F5*$H$5+F6*$H$6+F7*$H$7+F8*$H$8+F9*$H$9</f>
         <v>0.99999999999999978</v>
       </c>
       <c r="G10" s="9">
-        <f t="shared" si="1"/>
+        <f>G4*$H$4+G5*$H$5+G6*$H$6+G7*$H$7+G8*$H$8+G9*$H$9</f>
         <v>0.99999999999999978</v>
       </c>
       <c r="H10" s="13"/>
@@ -3105,7 +3300,7 @@
   <dimension ref="B4:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3620,7 +3815,7 @@
   <dimension ref="C3:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3670,7 +3865,7 @@
         <v>10</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E9" si="0">D13+D14</f>
+        <f>D13+D14</f>
         <v>10</v>
       </c>
     </row>
@@ -3682,7 +3877,7 @@
         <v>7</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f>D14+D15</f>
         <v>14</v>
       </c>
     </row>
@@ -3694,7 +3889,7 @@
         <v>12</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f>D15+D16</f>
         <v>12</v>
       </c>
     </row>
@@ -3857,11 +4052,11 @@
         <v>50</v>
       </c>
       <c r="I10">
-        <f t="shared" ref="I10:J10" si="0">E10*$G$10</f>
+        <f>E10*$G$10</f>
         <v>0</v>
       </c>
       <c r="J10">
-        <f t="shared" si="0"/>
+        <f>F10*$G$10</f>
         <v>0</v>
       </c>
     </row>
@@ -3886,11 +4081,11 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <f t="shared" ref="I11:J11" si="1">E11*$G$11</f>
+        <f>E11*$G$11</f>
         <v>0</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
+        <f>F11*$G$11</f>
         <v>0</v>
       </c>
     </row>
@@ -3915,11 +4110,11 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <f t="shared" ref="I12:J12" si="2">E12*$G$12</f>
+        <f>E12*$G$12</f>
         <v>0</v>
       </c>
       <c r="J12">
-        <f t="shared" si="2"/>
+        <f>F12*$G$12</f>
         <v>0</v>
       </c>
     </row>
@@ -3944,11 +4139,11 @@
         <v>100</v>
       </c>
       <c r="I13">
-        <f t="shared" ref="I13:J13" si="3">E13*$G$13</f>
+        <f>E13*$G$13</f>
         <v>200</v>
       </c>
       <c r="J13">
-        <f t="shared" si="3"/>
+        <f>F13*$G$13</f>
         <v>0</v>
       </c>
     </row>
@@ -3973,11 +4168,11 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <f t="shared" ref="I14:J14" si="4">E14*$G$14</f>
+        <f>E14*$G$14</f>
         <v>0</v>
       </c>
       <c r="J14">
-        <f t="shared" si="4"/>
+        <f>F14*$G$14</f>
         <v>0</v>
       </c>
     </row>
@@ -4006,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <f t="shared" ref="J15" si="5">F15*$G$15</f>
+        <f>F15*$G$15</f>
         <v>300</v>
       </c>
     </row>
@@ -4020,11 +4215,11 @@
         <v>150</v>
       </c>
       <c r="I16">
-        <f t="shared" ref="I16:J16" si="6">SUM(I10:I15)</f>
+        <f>SUM(I10:I15)</f>
         <v>200</v>
       </c>
       <c r="J16">
-        <f t="shared" si="6"/>
+        <f>SUM(J10:J15)</f>
         <v>300</v>
       </c>
     </row>
@@ -4220,15 +4415,15 @@
         <v>80</v>
       </c>
       <c r="E18">
-        <f t="shared" ref="E18:G18" si="0">SUM(E16:E17)</f>
+        <f>SUM(E16:E17)</f>
         <v>100</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
+        <f>SUM(F16:F17)</f>
         <v>70</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
+        <f>SUM(G16:G17)</f>
         <v>130</v>
       </c>
     </row>
@@ -4237,37 +4432,37 @@
         <v>91</v>
       </c>
       <c r="D20">
-        <f>D12*D16</f>
+        <f t="shared" ref="D20:G21" si="0">D12*D16</f>
         <v>0</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="E20:G20" si="1">E12*E16</f>
+        <f t="shared" si="0"/>
         <v>1200</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2100</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1950</v>
       </c>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D21">
-        <f>D13*D17</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="E21">
-        <f t="shared" ref="E21:F21" si="2">E13*E17</f>
+        <f t="shared" si="0"/>
         <v>2450</v>
       </c>
       <c r="F21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G21">
-        <f>G13*G17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4289,8 +4484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="C3:P43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5722,11 +5917,1447 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C76B9F-A28F-804D-BB06-AAB507CC604A}">
+  <dimension ref="C3:P43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="111" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="113"/>
+    </row>
+    <row r="5" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="57">
+        <v>1</v>
+      </c>
+      <c r="E5" s="58">
+        <v>2</v>
+      </c>
+      <c r="F5" s="58">
+        <v>3</v>
+      </c>
+      <c r="G5" s="58">
+        <v>4</v>
+      </c>
+      <c r="H5" s="58">
+        <v>5</v>
+      </c>
+      <c r="I5" s="58">
+        <v>6</v>
+      </c>
+      <c r="J5" s="58">
+        <v>7</v>
+      </c>
+      <c r="K5" s="58">
+        <v>8</v>
+      </c>
+      <c r="L5" s="58">
+        <v>9</v>
+      </c>
+      <c r="M5" s="59">
+        <v>10</v>
+      </c>
+      <c r="O5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C6" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="61">
+        <v>14</v>
+      </c>
+      <c r="E6" s="62">
+        <v>18</v>
+      </c>
+      <c r="F6" s="62">
+        <v>22</v>
+      </c>
+      <c r="G6" s="62">
+        <v>27</v>
+      </c>
+      <c r="H6" s="62">
+        <v>23</v>
+      </c>
+      <c r="I6" s="62">
+        <v>21</v>
+      </c>
+      <c r="J6" s="62">
+        <v>27</v>
+      </c>
+      <c r="K6" s="62">
+        <v>31</v>
+      </c>
+      <c r="L6" s="62">
+        <v>20</v>
+      </c>
+      <c r="M6" s="63">
+        <v>26</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ref="O6:O15" si="0">MAX(D6:M6)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C7" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="65">
+        <v>22</v>
+      </c>
+      <c r="E7" s="66">
+        <v>20</v>
+      </c>
+      <c r="F7" s="66">
+        <v>19</v>
+      </c>
+      <c r="G7" s="66">
+        <v>19</v>
+      </c>
+      <c r="H7" s="66">
+        <v>25</v>
+      </c>
+      <c r="I7" s="66">
+        <v>19</v>
+      </c>
+      <c r="J7" s="66">
+        <v>28</v>
+      </c>
+      <c r="K7" s="66">
+        <v>20</v>
+      </c>
+      <c r="L7" s="66">
+        <v>27</v>
+      </c>
+      <c r="M7" s="67">
+        <v>39</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C8" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="65">
+        <v>12</v>
+      </c>
+      <c r="E8" s="66">
+        <v>18</v>
+      </c>
+      <c r="F8" s="66">
+        <v>17</v>
+      </c>
+      <c r="G8" s="66">
+        <v>16</v>
+      </c>
+      <c r="H8" s="66">
+        <v>25</v>
+      </c>
+      <c r="I8" s="66">
+        <v>30</v>
+      </c>
+      <c r="J8" s="66">
+        <v>27</v>
+      </c>
+      <c r="K8" s="66">
+        <v>26</v>
+      </c>
+      <c r="L8" s="66">
+        <v>29</v>
+      </c>
+      <c r="M8" s="67">
+        <v>36</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C9" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="65">
+        <v>12</v>
+      </c>
+      <c r="E9" s="66">
+        <v>23</v>
+      </c>
+      <c r="F9" s="66">
+        <v>26</v>
+      </c>
+      <c r="G9" s="66">
+        <v>19</v>
+      </c>
+      <c r="H9" s="66">
+        <v>26</v>
+      </c>
+      <c r="I9" s="66">
+        <v>20</v>
+      </c>
+      <c r="J9" s="66">
+        <v>26</v>
+      </c>
+      <c r="K9" s="66">
+        <v>34</v>
+      </c>
+      <c r="L9" s="66">
+        <v>23</v>
+      </c>
+      <c r="M9" s="67">
+        <v>35</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C10" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="65">
+        <v>12</v>
+      </c>
+      <c r="E10" s="66">
+        <v>14</v>
+      </c>
+      <c r="F10" s="66">
+        <v>14</v>
+      </c>
+      <c r="G10" s="66">
+        <v>19</v>
+      </c>
+      <c r="H10" s="66">
+        <v>21</v>
+      </c>
+      <c r="I10" s="66">
+        <v>27</v>
+      </c>
+      <c r="J10" s="66">
+        <v>24</v>
+      </c>
+      <c r="K10" s="66">
+        <v>28</v>
+      </c>
+      <c r="L10" s="66">
+        <v>26</v>
+      </c>
+      <c r="M10" s="67">
+        <v>24</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C11" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="65">
+        <v>20</v>
+      </c>
+      <c r="E11" s="66">
+        <v>18</v>
+      </c>
+      <c r="F11" s="66">
+        <v>20</v>
+      </c>
+      <c r="G11" s="66">
+        <v>19</v>
+      </c>
+      <c r="H11" s="66">
+        <v>15</v>
+      </c>
+      <c r="I11" s="66">
+        <v>20</v>
+      </c>
+      <c r="J11" s="66">
+        <v>31</v>
+      </c>
+      <c r="K11" s="66">
+        <v>32</v>
+      </c>
+      <c r="L11" s="66">
+        <v>26</v>
+      </c>
+      <c r="M11" s="67">
+        <v>29</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C12" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="65">
+        <v>15</v>
+      </c>
+      <c r="E12" s="66">
+        <v>23</v>
+      </c>
+      <c r="F12" s="66">
+        <v>20</v>
+      </c>
+      <c r="G12" s="66">
+        <v>23</v>
+      </c>
+      <c r="H12" s="66">
+        <v>26</v>
+      </c>
+      <c r="I12" s="66">
+        <v>22</v>
+      </c>
+      <c r="J12" s="66">
+        <v>32</v>
+      </c>
+      <c r="K12" s="66">
+        <v>24</v>
+      </c>
+      <c r="L12" s="66">
+        <v>26</v>
+      </c>
+      <c r="M12" s="67">
+        <v>31</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C13" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="65">
+        <v>13</v>
+      </c>
+      <c r="E13" s="66">
+        <v>14</v>
+      </c>
+      <c r="F13" s="66">
+        <v>19</v>
+      </c>
+      <c r="G13" s="66">
+        <v>20</v>
+      </c>
+      <c r="H13" s="66">
+        <v>21</v>
+      </c>
+      <c r="I13" s="66">
+        <v>22</v>
+      </c>
+      <c r="J13" s="66">
+        <v>32</v>
+      </c>
+      <c r="K13" s="66">
+        <v>24</v>
+      </c>
+      <c r="L13" s="66">
+        <v>31</v>
+      </c>
+      <c r="M13" s="67">
+        <v>29</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C14" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="65">
+        <v>14</v>
+      </c>
+      <c r="E14" s="66">
+        <v>19</v>
+      </c>
+      <c r="F14" s="66">
+        <v>15</v>
+      </c>
+      <c r="G14" s="66">
+        <v>16</v>
+      </c>
+      <c r="H14" s="66">
+        <v>20</v>
+      </c>
+      <c r="I14" s="66">
+        <v>22</v>
+      </c>
+      <c r="J14" s="66">
+        <v>27</v>
+      </c>
+      <c r="K14" s="66">
+        <v>33</v>
+      </c>
+      <c r="L14" s="66">
+        <v>19</v>
+      </c>
+      <c r="M14" s="67">
+        <v>36</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="69">
+        <v>18</v>
+      </c>
+      <c r="E15" s="70">
+        <v>23</v>
+      </c>
+      <c r="F15" s="70">
+        <v>14</v>
+      </c>
+      <c r="G15" s="70">
+        <v>23</v>
+      </c>
+      <c r="H15" s="70">
+        <v>24</v>
+      </c>
+      <c r="I15" s="70">
+        <v>31</v>
+      </c>
+      <c r="J15" s="70">
+        <v>18</v>
+      </c>
+      <c r="K15" s="70">
+        <v>19</v>
+      </c>
+      <c r="L15" s="70">
+        <v>32</v>
+      </c>
+      <c r="M15" s="71">
+        <v>35</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="O16" s="10">
+        <f>SUM(O6:O15)</f>
+        <v>336</v>
+      </c>
+      <c r="P16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="111" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="112"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="112"/>
+      <c r="L17" s="112"/>
+      <c r="M17" s="113"/>
+    </row>
+    <row r="18" spans="3:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="57">
+        <v>1</v>
+      </c>
+      <c r="E18" s="58">
+        <v>2</v>
+      </c>
+      <c r="F18" s="58">
+        <v>3</v>
+      </c>
+      <c r="G18" s="58">
+        <v>4</v>
+      </c>
+      <c r="H18" s="58">
+        <v>5</v>
+      </c>
+      <c r="I18" s="58">
+        <v>6</v>
+      </c>
+      <c r="J18" s="58">
+        <v>7</v>
+      </c>
+      <c r="K18" s="58">
+        <v>8</v>
+      </c>
+      <c r="L18" s="58">
+        <v>9</v>
+      </c>
+      <c r="M18" s="59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C19" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="93">
+        <v>0</v>
+      </c>
+      <c r="E19" s="94">
+        <v>0</v>
+      </c>
+      <c r="F19" s="94">
+        <v>0</v>
+      </c>
+      <c r="G19" s="94">
+        <v>0</v>
+      </c>
+      <c r="H19" s="94">
+        <v>0</v>
+      </c>
+      <c r="I19" s="94">
+        <v>0</v>
+      </c>
+      <c r="J19" s="94">
+        <v>0</v>
+      </c>
+      <c r="K19" s="94">
+        <v>0</v>
+      </c>
+      <c r="L19" s="94">
+        <v>0</v>
+      </c>
+      <c r="M19" s="95">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <f>SUM(D19:M19)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C20" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="96">
+        <v>0</v>
+      </c>
+      <c r="E20" s="97">
+        <v>0</v>
+      </c>
+      <c r="F20" s="97">
+        <v>0</v>
+      </c>
+      <c r="G20" s="97">
+        <v>0</v>
+      </c>
+      <c r="H20" s="97">
+        <v>0</v>
+      </c>
+      <c r="I20" s="97">
+        <v>0</v>
+      </c>
+      <c r="J20" s="97">
+        <v>0</v>
+      </c>
+      <c r="K20" s="97">
+        <v>1</v>
+      </c>
+      <c r="L20" s="97">
+        <v>0</v>
+      </c>
+      <c r="M20" s="98">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f t="shared" ref="N20:N28" si="1">SUM(D20:M20)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C21" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="96">
+        <v>0</v>
+      </c>
+      <c r="E21" s="97">
+        <v>0</v>
+      </c>
+      <c r="F21" s="97">
+        <v>0</v>
+      </c>
+      <c r="G21" s="97">
+        <v>1</v>
+      </c>
+      <c r="H21" s="97">
+        <v>0</v>
+      </c>
+      <c r="I21" s="97">
+        <v>0</v>
+      </c>
+      <c r="J21" s="97">
+        <v>0</v>
+      </c>
+      <c r="K21" s="97">
+        <v>0</v>
+      </c>
+      <c r="L21" s="97">
+        <v>0</v>
+      </c>
+      <c r="M21" s="98">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C22" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="96">
+        <v>1</v>
+      </c>
+      <c r="E22" s="97">
+        <v>0</v>
+      </c>
+      <c r="F22" s="97">
+        <v>0</v>
+      </c>
+      <c r="G22" s="97">
+        <v>0</v>
+      </c>
+      <c r="H22" s="97">
+        <v>0</v>
+      </c>
+      <c r="I22" s="97">
+        <v>0</v>
+      </c>
+      <c r="J22" s="97">
+        <v>0</v>
+      </c>
+      <c r="K22" s="97">
+        <v>0</v>
+      </c>
+      <c r="L22" s="97">
+        <v>0</v>
+      </c>
+      <c r="M22" s="98">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C23" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="96">
+        <v>0</v>
+      </c>
+      <c r="E23" s="97">
+        <v>0</v>
+      </c>
+      <c r="F23" s="97">
+        <v>1</v>
+      </c>
+      <c r="G23" s="97">
+        <v>0</v>
+      </c>
+      <c r="H23" s="97">
+        <v>0</v>
+      </c>
+      <c r="I23" s="97">
+        <v>0</v>
+      </c>
+      <c r="J23" s="97">
+        <v>0</v>
+      </c>
+      <c r="K23" s="97">
+        <v>0</v>
+      </c>
+      <c r="L23" s="97">
+        <v>0</v>
+      </c>
+      <c r="M23" s="98">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C24" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="96">
+        <v>0</v>
+      </c>
+      <c r="E24" s="97">
+        <v>0</v>
+      </c>
+      <c r="F24" s="97">
+        <v>0</v>
+      </c>
+      <c r="G24" s="97">
+        <v>0</v>
+      </c>
+      <c r="H24" s="97">
+        <v>1</v>
+      </c>
+      <c r="I24" s="97">
+        <v>0</v>
+      </c>
+      <c r="J24" s="97">
+        <v>0</v>
+      </c>
+      <c r="K24" s="97">
+        <v>0</v>
+      </c>
+      <c r="L24" s="97">
+        <v>0</v>
+      </c>
+      <c r="M24" s="98">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C25" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="96">
+        <v>0</v>
+      </c>
+      <c r="E25" s="97">
+        <v>0</v>
+      </c>
+      <c r="F25" s="97">
+        <v>0</v>
+      </c>
+      <c r="G25" s="97">
+        <v>0</v>
+      </c>
+      <c r="H25" s="97">
+        <v>0</v>
+      </c>
+      <c r="I25" s="97">
+        <v>1</v>
+      </c>
+      <c r="J25" s="97">
+        <v>0</v>
+      </c>
+      <c r="K25" s="97">
+        <v>0</v>
+      </c>
+      <c r="L25" s="97">
+        <v>0</v>
+      </c>
+      <c r="M25" s="98">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C26" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="96">
+        <v>0</v>
+      </c>
+      <c r="E26" s="97">
+        <v>1</v>
+      </c>
+      <c r="F26" s="97">
+        <v>0</v>
+      </c>
+      <c r="G26" s="97">
+        <v>0</v>
+      </c>
+      <c r="H26" s="97">
+        <v>0</v>
+      </c>
+      <c r="I26" s="97">
+        <v>0</v>
+      </c>
+      <c r="J26" s="97">
+        <v>0</v>
+      </c>
+      <c r="K26" s="97">
+        <v>0</v>
+      </c>
+      <c r="L26" s="97">
+        <v>0</v>
+      </c>
+      <c r="M26" s="98">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C27" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="96">
+        <v>0</v>
+      </c>
+      <c r="E27" s="97">
+        <v>0</v>
+      </c>
+      <c r="F27" s="97">
+        <v>0</v>
+      </c>
+      <c r="G27" s="97">
+        <v>0</v>
+      </c>
+      <c r="H27" s="97">
+        <v>0</v>
+      </c>
+      <c r="I27" s="97">
+        <v>0</v>
+      </c>
+      <c r="J27" s="97">
+        <v>0</v>
+      </c>
+      <c r="K27" s="97">
+        <v>0</v>
+      </c>
+      <c r="L27" s="97">
+        <v>1</v>
+      </c>
+      <c r="M27" s="98">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="99">
+        <v>0</v>
+      </c>
+      <c r="E28" s="100">
+        <v>0</v>
+      </c>
+      <c r="F28" s="100">
+        <v>0</v>
+      </c>
+      <c r="G28" s="100">
+        <v>0</v>
+      </c>
+      <c r="H28" s="100">
+        <v>0</v>
+      </c>
+      <c r="I28" s="100">
+        <v>0</v>
+      </c>
+      <c r="J28" s="100">
+        <v>1</v>
+      </c>
+      <c r="K28" s="100">
+        <v>0</v>
+      </c>
+      <c r="L28" s="100">
+        <v>0</v>
+      </c>
+      <c r="M28" s="101">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <f>SUM(D19:D28)</f>
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ref="E29:M29" si="2">SUM(E19:E28)</f>
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <f>D6*D19</f>
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ref="E32:M32" si="3">E6*E19</f>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ref="D33:M41" si="4">D7*D20</f>
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <v>9</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <f>D15*D28</f>
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>124</v>
+      </c>
+      <c r="E43" s="103">
+        <f>SUM(D32:M41)</f>
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="D17:M17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2598E4-1DD0-3349-9190-5302A04FDDDE}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="166" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="166" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5826,125 +7457,12 @@
         <v>136</v>
       </c>
       <c r="B10" s="102">
-        <f>B5*E5+B6*E6</f>
-        <v>1080000</v>
+        <f>B5*E5*21+B6*E6*21</f>
+        <v>22680000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C643BD6-A792-444A-BA0E-267918547EE5}">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B5" s="92">
-        <v>4.5238095238095255</v>
-      </c>
-      <c r="C5" s="73">
-        <f>2*B5</f>
-        <v>9.047619047619051</v>
-      </c>
-      <c r="D5">
-        <f>21*9000</f>
-        <v>189000</v>
-      </c>
-      <c r="E5">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B6" s="92">
-        <v>39.476190476190474</v>
-      </c>
-      <c r="C6">
-        <f>B6</f>
-        <v>39.476190476190474</v>
-      </c>
-      <c r="D6">
-        <f>21*5000</f>
-        <v>105000</v>
-      </c>
-      <c r="E6">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="73">
-        <f>SUM(B5:B6)</f>
-        <v>44</v>
-      </c>
-      <c r="C7">
-        <f>SUM(C5:C6)</f>
-        <v>48.523809523809526</v>
-      </c>
-      <c r="D7">
-        <f>B5*D5+B6*D6</f>
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>44</v>
-      </c>
-      <c r="C8">
-        <v>64</v>
-      </c>
-      <c r="D8">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="102">
-        <f>B5*E5+B6*E6</f>
-        <v>925238.09523809527</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>